--- a/servidor/RMusa/Data1/SatisfacciónRtasFundamentos.xlsx
+++ b/servidor/RMusa/Data1/SatisfacciónRtasFundamentos.xlsx
@@ -109,7 +109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -136,14 +136,6 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="4:4">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -174,7 +166,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -182,7 +174,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -249,7 +241,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -268,7 +260,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -276,7 +268,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -284,7 +276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -292,7 +284,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -300,6 +292,174 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="14:14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="15:15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="16:16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="22:22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="23:23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="24:24">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="25:25">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="27:27">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -311,7 +471,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -336,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -347,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -358,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -369,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -385,98 +545,98 @@
     </row>
     <row r="7" spans="7:7">
       <c r="A7" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="A8" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -484,13 +644,420 @@
     </row>
     <row r="16" spans="16:16">
       <c r="A16" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="22:22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="23:23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="24:24">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="25:25">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="27:27">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="28:28">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="29:29">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="30:30">
+      <c r="A30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="31:31">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="32:32">
+      <c r="A32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33">
+      <c r="A33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="34:34">
+      <c r="A34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="35:35">
+      <c r="A35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="36:36">
+      <c r="A36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="37:37">
+      <c r="A37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="38:38">
+      <c r="A38" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="39:39">
+      <c r="A39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40">
+      <c r="A40" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="41:41">
+      <c r="A41" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="42:42">
+      <c r="A42" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="43:43">
+      <c r="A43" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="44:44">
+      <c r="A44" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="45:45">
+      <c r="A45" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="46:46">
+      <c r="A46" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="47:47">
+      <c r="A47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="48:48">
+      <c r="A48" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="49:49">
+      <c r="A49" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="50:50">
+      <c r="A50" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="51:51">
+      <c r="A51" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="52:52">
+      <c r="A52" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="53:53">
+      <c r="A53" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +1068,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -532,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -546,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -560,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -588,74 +1155,74 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="A7" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="A8" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="A10" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -663,24 +1230,24 @@
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -691,10 +1258,10 @@
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -705,10 +1272,10 @@
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -719,55 +1286,55 @@
     </row>
     <row r="16" spans="16:16">
       <c r="A16" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="17:17">
       <c r="A17" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="18:18">
       <c r="A18" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="A19" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -775,83 +1342,83 @@
     </row>
     <row r="20" spans="20:20">
       <c r="A20" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="A21" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="A22" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="23:23">
       <c r="A23" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="24:24">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="25:25">
       <c r="A25" s="0" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -859,13 +1426,13 @@
     </row>
     <row r="26" spans="26:26">
       <c r="A26" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>5</v>
@@ -873,55 +1440,55 @@
     </row>
     <row r="27" spans="27:27">
       <c r="A27" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="28:28">
       <c r="A28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="29:29">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="A30" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -929,66 +1496,66 @@
     </row>
     <row r="31" spans="31:31">
       <c r="A31" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="32:32">
       <c r="A32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="33:33">
       <c r="A33" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="A34" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="A35" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2</v>
@@ -999,15 +1566,981 @@
     </row>
     <row r="36" spans="36:36">
       <c r="A36" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="37:37">
+      <c r="A37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="38:38">
+      <c r="A38" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="39:39">
+      <c r="A39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40">
+      <c r="A40" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="41:41">
+      <c r="A41" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="42:42">
+      <c r="A42" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="43:43">
+      <c r="A43" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="44:44">
+      <c r="A44" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="45:45">
+      <c r="A45" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="46:46">
+      <c r="A46" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="47:47">
+      <c r="A47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="48:48">
+      <c r="A48" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="49:49">
+      <c r="A49" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="50:50">
+      <c r="A50" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="51:51">
+      <c r="A51" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="52:52">
+      <c r="A52" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="53:53">
+      <c r="A53" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="54:54">
+      <c r="A54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="55:55">
+      <c r="A55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="56:56">
+      <c r="A56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="57:57">
+      <c r="A57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="58:58">
+      <c r="A58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="59:59">
+      <c r="A59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="60:60">
+      <c r="A60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="61:61">
+      <c r="A61" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="62:62">
+      <c r="A62" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="63:63">
+      <c r="A63" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="64:64">
+      <c r="A64" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="65:65">
+      <c r="A65" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="66:66">
+      <c r="A66" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="67:67">
+      <c r="A67" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="68:68">
+      <c r="A68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="69:69">
+      <c r="A69" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="70:70">
+      <c r="A70" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="71:71">
+      <c r="A71" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="72:72">
+      <c r="A72" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="73:73">
+      <c r="A73" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="74:74">
+      <c r="A74" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="75:75">
+      <c r="A75" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="76:76">
+      <c r="A76" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="77:77">
+      <c r="A77" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="78:78">
+      <c r="A78" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="79:79">
+      <c r="A79" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="80:80">
+      <c r="A80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="81:81">
+      <c r="A81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="82:82">
+      <c r="A82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="83:83">
+      <c r="A83" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="84:84">
+      <c r="A84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="85:85">
+      <c r="A85" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="86:86">
+      <c r="A86" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="87:87">
+      <c r="A87" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="88:88">
+      <c r="A88" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="89:89">
+      <c r="A89" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="90:90">
+      <c r="A90" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="91:91">
+      <c r="A91" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="92:92">
+      <c r="A92" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="93:93">
+      <c r="A93" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="94:94">
+      <c r="A94" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="95:95">
+      <c r="A95" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="96:96">
+      <c r="A96" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="97:97">
+      <c r="A97" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="98:98">
+      <c r="A98" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="99:99">
+      <c r="A99" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="100:100">
+      <c r="A100" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="101:101">
+      <c r="A101" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="102:102">
+      <c r="A102" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="103:103">
+      <c r="A103" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="104:104">
+      <c r="A104" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="105:105">
+      <c r="A105" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="0" t="n">
         <v>4</v>
       </c>
     </row>

--- a/servidor/RMusa/Data1/SatisfacciónRtasFundamentos.xlsx
+++ b/servidor/RMusa/Data1/SatisfacciónRtasFundamentos.xlsx
@@ -109,7 +109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -128,7 +128,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -137,6 +137,38 @@
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -166,7 +198,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -174,7 +206,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -241,7 +273,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -260,7 +292,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -276,7 +308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -284,7 +316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -292,7 +324,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -308,7 +340,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="9:9">
@@ -324,7 +356,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="11:11">
@@ -332,134 +364,6 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="12:12">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="13:13">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="14:14">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="15:15">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="16:16">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="17:17">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="18:18">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="19:19">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="20:20">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="21:21">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="22:22">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="23:23">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="24:24">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="25:25">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="26:26">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="27:27">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -471,7 +375,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -496,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -507,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -518,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -540,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -551,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="8:8">
@@ -562,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="9:9">
@@ -584,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="11:11">
@@ -595,48 +499,48 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -644,21 +548,21 @@
     </row>
     <row r="16" spans="16:16">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="17:17">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -666,54 +570,54 @@
     </row>
     <row r="18" spans="18:18">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="20:20">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -721,76 +625,76 @@
     </row>
     <row r="23" spans="23:23">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="24:24">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="25:25">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="26:26">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="27:27">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="28:28">
       <c r="A28" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="29:29">
       <c r="A29" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>5</v>
@@ -798,54 +702,54 @@
     </row>
     <row r="30" spans="30:30">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="31:31">
       <c r="A31" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="32:32">
       <c r="A32" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="33:33">
       <c r="A33" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="A34" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -853,186 +757,186 @@
     </row>
     <row r="35" spans="35:35">
       <c r="A35" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="A36" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="A37" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="A38" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="A39" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="A40" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="A41" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="A42" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="A43" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="44:44">
       <c r="A44" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="A45" s="0" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="A46" s="0" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="A47" s="0" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="48:48">
       <c r="A48" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="49:49">
       <c r="A49" s="0" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="A50" s="0" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="51:51">
       <c r="A51" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3</v>
@@ -1040,24 +944,112 @@
     </row>
     <row r="52" spans="52:52">
       <c r="A52" s="0" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="53:53">
       <c r="A53" s="0" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="54:54">
+      <c r="A54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="55:55">
+      <c r="A55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="56:56">
+      <c r="A56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="57:57">
+      <c r="A57" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="58:58">
+      <c r="A58" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="59:59">
+      <c r="A59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="60:60">
+      <c r="A60" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="61:61">
+      <c r="A61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1060,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1099,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -1113,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -1127,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -1141,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -1155,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -1169,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="8:8">
@@ -1197,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="10:10">
@@ -1211,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="11:11">
@@ -1225,18 +1217,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>4</v>
@@ -1244,251 +1236,251 @@
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="16:16">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="17:17">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="18:18">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="20:20">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="23:23">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="24:24">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="25:25">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="26:26">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="27:27">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="28:28">
       <c r="A28" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="29:29">
       <c r="A29" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="30:30">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -1496,69 +1488,69 @@
     </row>
     <row r="31" spans="31:31">
       <c r="A31" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="32:32">
       <c r="A32" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="33:33">
       <c r="A33" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="A34" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="35:35">
       <c r="A35" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3</v>
@@ -1566,178 +1558,178 @@
     </row>
     <row r="36" spans="36:36">
       <c r="A36" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="37:37">
       <c r="A37" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="38:38">
       <c r="A38" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="39:39">
       <c r="A39" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="A40" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="A41" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="42:42">
       <c r="A42" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="43:43">
       <c r="A43" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="44:44">
       <c r="A44" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="45:45">
       <c r="A45" s="0" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="46:46">
       <c r="A46" s="0" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="47:47">
       <c r="A47" s="0" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="48:48">
       <c r="A48" s="0" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -1748,38 +1740,38 @@
     </row>
     <row r="49" spans="49:49">
       <c r="A49" s="0" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="50:50">
       <c r="A50" s="0" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="51:51">
       <c r="A51" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>2</v>
@@ -1790,108 +1782,108 @@
     </row>
     <row r="52" spans="52:52">
       <c r="A52" s="0" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="53:53">
       <c r="A53" s="0" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="54:54">
       <c r="A54" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="55:55">
       <c r="A55" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="56:56">
       <c r="A56" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="57:57">
       <c r="A57" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="58:58">
       <c r="A58" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="59:59">
       <c r="A59" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1</v>
@@ -1902,10 +1894,10 @@
     </row>
     <row r="60" spans="60:60">
       <c r="A60" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -1916,41 +1908,41 @@
     </row>
     <row r="61" spans="61:61">
       <c r="A61" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="62:62">
       <c r="A62" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="63:63">
       <c r="A63" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2</v>
@@ -1958,167 +1950,167 @@
     </row>
     <row r="64" spans="64:64">
       <c r="A64" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="65:65">
       <c r="A65" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="66:66">
       <c r="A66" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="67:67">
       <c r="A67" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="68:68">
       <c r="A68" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="69:69">
       <c r="A69" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="70:70">
       <c r="A70" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="71:71">
       <c r="A71" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="72:72">
       <c r="A72" s="0" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="73:73">
       <c r="A73" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="74:74">
       <c r="A74" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="75:75">
       <c r="A75" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>3</v>
@@ -2126,27 +2118,27 @@
     </row>
     <row r="76" spans="76:76">
       <c r="A76" s="0" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="77:77">
       <c r="A77" s="0" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>3</v>
@@ -2154,27 +2146,27 @@
     </row>
     <row r="78" spans="78:78">
       <c r="A78" s="0" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="79:79">
       <c r="A79" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>4</v>
@@ -2182,69 +2174,69 @@
     </row>
     <row r="80" spans="80:80">
       <c r="A80" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="81:81">
       <c r="A81" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="82:82">
       <c r="A82" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="83:83">
       <c r="A83" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="84:84">
       <c r="A84" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>4</v>
@@ -2252,13 +2244,13 @@
     </row>
     <row r="85" spans="85:85">
       <c r="A85" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>3</v>
@@ -2266,27 +2258,27 @@
     </row>
     <row r="86" spans="86:86">
       <c r="A86" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="87:87">
       <c r="A87" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>4</v>
@@ -2294,80 +2286,80 @@
     </row>
     <row r="88" spans="88:88">
       <c r="A88" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="89:89">
       <c r="A89" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="90:90">
       <c r="A90" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="91:91">
       <c r="A91" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="92:92">
       <c r="A92" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="93:93">
       <c r="A93" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -2378,170 +2370,1234 @@
     </row>
     <row r="94" spans="94:94">
       <c r="A94" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="95:95">
       <c r="A95" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="96:96">
       <c r="A96" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="97:97">
       <c r="A97" s="0" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="98:98">
       <c r="A98" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="99:99">
       <c r="A99" s="0" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="100:100">
       <c r="A100" s="0" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="101:101">
       <c r="A101" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="102:102">
       <c r="A102" s="0" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="103:103">
       <c r="A103" s="0" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="104:104">
       <c r="A104" s="0" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="105:105">
       <c r="A105" s="0" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="106:106">
+      <c r="A106" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="107:107">
+      <c r="A107" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="108:108">
+      <c r="A108" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="109:109">
+      <c r="A109" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="110:110">
+      <c r="A110" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="111:111">
+      <c r="A111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="112:112">
+      <c r="A112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="113:113">
+      <c r="A113" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="114:114">
+      <c r="A114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="115:115">
+      <c r="A115" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="116:116">
+      <c r="A116" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="117:117">
+      <c r="A117" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="118:118">
+      <c r="A118" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="119:119">
+      <c r="A119" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="120:120">
+      <c r="A120" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="121:121">
+      <c r="A121" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="122:122">
+      <c r="A122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="123:123">
+      <c r="A123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="124:124">
+      <c r="A124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="125:125">
+      <c r="A125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="126:126">
+      <c r="A126" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="127:127">
+      <c r="A127" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="128:128">
+      <c r="A128" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="129:129">
+      <c r="A129" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="130:130">
+      <c r="A130" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="131:131">
+      <c r="A131" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="132:132">
+      <c r="A132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="133:133">
+      <c r="A133" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="134:134">
+      <c r="A134" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="135:135">
+      <c r="A135" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="136:136">
+      <c r="A136" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="137:137">
+      <c r="A137" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="138:138">
+      <c r="A138" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="139:139">
+      <c r="A139" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="140:140">
+      <c r="A140" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="141:141">
+      <c r="A141" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="142:142">
+      <c r="A142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="143:143">
+      <c r="A143" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="144:144">
+      <c r="A144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="145:145">
+      <c r="A145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="146:146">
+      <c r="A146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="147:147">
+      <c r="A147" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="148:148">
+      <c r="A148" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="149:149">
+      <c r="A149" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="150:150">
+      <c r="A150" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="151:151">
+      <c r="A151" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="152:152">
+      <c r="A152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="153:153">
+      <c r="A153" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="154:154">
+      <c r="A154" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="155:155">
+      <c r="A155" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="156:156">
+      <c r="A156" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="157:157">
+      <c r="A157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="158:158">
+      <c r="A158" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="159:159">
+      <c r="A159" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="160:160">
+      <c r="A160" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="161:161">
+      <c r="A161" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="162:162">
+      <c r="A162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="163:163">
+      <c r="A163" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="164:164">
+      <c r="A164" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="165:165">
+      <c r="A165" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="166:166">
+      <c r="A166" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="167:167">
+      <c r="A167" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="168:168">
+      <c r="A168" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="169:169">
+      <c r="A169" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="170:170">
+      <c r="A170" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="171:171">
+      <c r="A171" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="172:172">
+      <c r="A172" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="173:173">
+      <c r="A173" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="174:174">
+      <c r="A174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="175:175">
+      <c r="A175" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="176:176">
+      <c r="A176" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="177:177">
+      <c r="A177" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="178:178">
+      <c r="A178" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="179:179">
+      <c r="A179" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="180:180">
+      <c r="A180" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="181:181">
+      <c r="A181" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
